--- a/example/5_NB70_SAT_Schedule_Rev_0.xlsx
+++ b/example/5_NB70_SAT_Schedule_Rev_0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oguzcan.erduran\SAT\SAT\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB445AB-7D81-4F66-9818-DDC69494C39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C637B36F-508E-41E7-80A6-4AFFFA7A4E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,15 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sayfa2!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -413,7 +422,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="168" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="167" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -557,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -626,6 +635,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -654,49 +666,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1104,8 +1116,8 @@
   </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1132,7 @@
     <col min="10" max="10" width="79.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" style="27" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27.42578125" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1134,12 +1146,12 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="36" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
@@ -1151,12 +1163,12 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="36" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
@@ -1168,73 +1180,73 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="36" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
       <c r="J4" s="2"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="36"/>
+      <c r="N4" s="42"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
     </row>
     <row r="5" spans="1:16" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37" t="s">
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37" t="s">
+      <c r="I5" s="40"/>
+      <c r="J5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="40" t="s">
         <v>0</v>
       </c>
       <c r="M5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="40" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="23" t="s">
         <v>13</v>
       </c>
@@ -1250,11 +1262,11 @@
       <c r="I6" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="41"/>
-      <c r="N6" s="37"/>
+      <c r="N6" s="40"/>
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21">
@@ -1287,19 +1299,19 @@
       <c r="K7" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="28">
         <v>44487</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="45">
         <v>0.41666666666666669</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15">
-        <f t="shared" ref="B8:B25" si="0">B7+1</f>
+        <f t="shared" ref="B8:B47" si="0">B7+1</f>
         <v>2</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -1373,15 +1385,15 @@
       <c r="K9" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="28">
         <f t="shared" ref="L9:L16" si="1">IF(M9&lt;M8, (L8+1),(L8))</f>
         <v>44487</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="45">
         <f t="shared" ref="M9:M16" si="2">IF(M8+N8&gt;1,M8+N8-1,M8+N8)</f>
         <v>0.43750000000000006</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="45">
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -1412,20 +1424,20 @@
       <c r="I10" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="34" t="s">
         <v>125</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="28">
         <f t="shared" si="1"/>
         <v>44487</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="45">
         <v>0.45833333333333331</v>
       </c>
-      <c r="N10" s="45" t="s">
+      <c r="N10" s="46" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1456,21 +1468,21 @@
       <c r="I11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="34" t="s">
         <v>117</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="28">
         <f>IF(M11&lt;M9, (L9+1),(L9))</f>
         <v>44487</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="45">
         <f>IF(M9+N9&gt;1,M9+N9-1,M9+N9)</f>
         <v>0.64583333333333337</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="46">
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -1501,21 +1513,21 @@
       <c r="I12" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="34" t="s">
         <v>117</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="27">
+      <c r="L12" s="28">
         <f t="shared" si="1"/>
         <v>44487</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="45">
         <f t="shared" si="2"/>
         <v>0.8125</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="46">
         <v>0.125</v>
       </c>
     </row>
@@ -1546,21 +1558,21 @@
       <c r="I13" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="34" t="s">
         <v>117</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="27">
+      <c r="L13" s="28">
         <f t="shared" si="1"/>
         <v>44487</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="45">
         <f t="shared" si="2"/>
         <v>0.9375</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -1596,15 +1608,15 @@
       <c r="K14" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="L14" s="27">
+      <c r="L14" s="28">
         <f t="shared" si="1"/>
         <v>44487</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="45">
         <f t="shared" si="2"/>
         <v>0.97916666666666663</v>
       </c>
-      <c r="N14" s="43">
+      <c r="N14" s="45">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -1614,7 +1626,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1635,21 +1647,21 @@
       <c r="I15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="34" t="s">
         <v>117</v>
       </c>
       <c r="K15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="28">
         <f t="shared" si="1"/>
         <v>44488</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="45">
         <f t="shared" si="2"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -1680,29 +1692,29 @@
       <c r="I16" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="34" t="s">
         <v>117</v>
       </c>
       <c r="K16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="28">
         <f t="shared" si="1"/>
         <v>44488</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="45">
         <f t="shared" si="2"/>
         <v>6.2499999999999924E-2</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="46">
         <v>0.125</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="21" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+      <c r="B17" s="21">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>110</v>
@@ -1731,23 +1743,23 @@
       <c r="K17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="35">
         <f t="shared" ref="L17" si="3">IF(M17&lt;M16, (L16+1),(L16))</f>
         <v>44488</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="45">
         <f t="shared" ref="M17" si="4">IF(M16+N16&gt;1,M16+N16-1,M16+N16)</f>
         <v>0.18749999999999992</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N17" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="21" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+      <c r="B18" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>52</v>
@@ -1776,11 +1788,11 @@
       <c r="K18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="37">
         <f>IF(M18&lt;M17, (L17+1),(L17))</f>
         <v>44488</v>
       </c>
-      <c r="M18" s="46">
+      <c r="M18" s="51">
         <f>IF(M17+N17&gt;1,M17+N17-1,M17+N17)</f>
         <v>0.20833333333333326</v>
       </c>
@@ -1790,9 +1802,9 @@
     </row>
     <row r="19" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B19" s="21">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>56</v>
@@ -1821,15 +1833,15 @@
       <c r="K19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="46"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="51"/>
       <c r="N19" s="47"/>
     </row>
     <row r="20" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B20" s="21">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>62</v>
@@ -1852,21 +1864,21 @@
       <c r="I20" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J20" s="34" t="s">
         <v>118</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="46"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="51"/>
       <c r="N20" s="47"/>
     </row>
     <row r="21" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B21" s="21">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>62</v>
@@ -1889,21 +1901,21 @@
       <c r="I21" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="34" t="s">
         <v>118</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="46"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="47"/>
     </row>
     <row r="22" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B22" s="21">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>62</v>
@@ -1926,21 +1938,21 @@
       <c r="I22" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="34" t="s">
         <v>119</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="38"/>
-      <c r="M22" s="46"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="51"/>
       <c r="N22" s="47"/>
     </row>
     <row r="23" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B23" s="21">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>57</v>
@@ -1969,15 +1981,15 @@
       <c r="K23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="38"/>
-      <c r="M23" s="46"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="51"/>
       <c r="N23" s="47"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B24" s="21">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>72</v>
@@ -2006,15 +2018,15 @@
       <c r="K24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="38"/>
-      <c r="M24" s="46"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="51"/>
       <c r="N24" s="47"/>
     </row>
     <row r="25" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B25" s="21">
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>61</v>
@@ -2037,21 +2049,21 @@
       <c r="I25" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J25" s="33" t="s">
+      <c r="J25" s="34" t="s">
         <v>117</v>
       </c>
       <c r="K25" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="38"/>
-      <c r="M25" s="46"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="51"/>
       <c r="N25" s="47"/>
     </row>
     <row r="26" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="21" t="e">
-        <f>B25+1</f>
-        <v>#REF!</v>
+      <c r="B26" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>48</v>
@@ -2080,23 +2092,23 @@
       <c r="K26" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="28">
         <f>IF(M26&lt;M18, (L18+1),(L18))</f>
         <v>44488</v>
       </c>
-      <c r="M26" s="43">
+      <c r="M26" s="45">
         <f>IF(M18+N18&gt;1,M18+N18-1,M18+N18)</f>
         <v>0.37499999999999989</v>
       </c>
-      <c r="N26" s="43">
+      <c r="N26" s="45">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="21" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+      <c r="B27" s="21">
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>53</v>
@@ -2104,44 +2116,44 @@
       <c r="D27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="35" t="s">
+      <c r="E27" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I27" s="35" t="s">
+      <c r="I27" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J27" s="35" t="s">
+      <c r="J27" s="36" t="s">
         <v>108</v>
       </c>
       <c r="K27" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L27" s="34">
+      <c r="L27" s="35">
         <f>IF(M27&lt;M26, (L26+1),(L26))</f>
         <v>44488</v>
       </c>
-      <c r="M27" s="43">
+      <c r="M27" s="45">
         <f>IF(M26+N26&gt;1,M26+N26-1,M26+N26)</f>
         <v>0.4583333333333332</v>
       </c>
-      <c r="N27" s="45">
+      <c r="N27" s="46">
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="21" t="e">
-        <f>B26+1</f>
-        <v>#REF!</v>
+      <c r="B28" s="21">
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>25</v>
@@ -2149,44 +2161,44 @@
       <c r="D28" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="31" t="s">
+      <c r="E28" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="32" t="s">
         <v>25</v>
       </c>
       <c r="K28" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="L28" s="34">
+      <c r="L28" s="35">
         <f>IF(M28&lt;M27, (L27+1),(L27))</f>
         <v>44488</v>
       </c>
-      <c r="M28" s="43">
+      <c r="M28" s="45">
         <f>IF(M27+N27&gt;1,M27+N27-1,M27+N27)</f>
         <v>0.52083333333333326</v>
       </c>
-      <c r="N28" s="43">
+      <c r="N28" s="45">
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="21" t="e">
-        <f t="shared" ref="B29:B47" si="5">B28+1</f>
-        <v>#REF!</v>
+      <c r="B29" s="21">
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>49</v>
@@ -2194,44 +2206,44 @@
       <c r="D29" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="31" t="s">
+      <c r="E29" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="34" t="s">
         <v>126</v>
       </c>
       <c r="K29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L29" s="32">
-        <f t="shared" ref="L29" si="6">IF(M29&lt;M28, (L28+1),(L28))</f>
+      <c r="L29" s="33">
+        <f t="shared" ref="L29" si="5">IF(M29&lt;M28, (L28+1),(L28))</f>
         <v>44488</v>
       </c>
-      <c r="M29" s="43">
-        <f t="shared" ref="M29" si="7">IF(M28+N28&gt;1,M28+N28-1,M28+N28)</f>
+      <c r="M29" s="45">
+        <f t="shared" ref="M29" si="6">IF(M28+N28&gt;1,M28+N28-1,M28+N28)</f>
         <v>0.68749999999999989</v>
       </c>
-      <c r="N29" s="43">
+      <c r="N29" s="45">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="21" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="B30" s="21">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>45</v>
@@ -2260,23 +2272,23 @@
       <c r="K30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L30" s="32">
-        <f t="shared" ref="L30" si="8">IF(M30&lt;M29, (L29+1),(L29))</f>
+      <c r="L30" s="33">
+        <f t="shared" ref="L30" si="7">IF(M30&lt;M29, (L29+1),(L29))</f>
         <v>44488</v>
       </c>
-      <c r="M30" s="43">
-        <f t="shared" ref="M30" si="9">IF(M29+N29&gt;1,M29+N29-1,M29+N29)</f>
+      <c r="M30" s="45">
+        <f t="shared" ref="M30" si="8">IF(M29+N29&gt;1,M29+N29-1,M29+N29)</f>
         <v>0.72916666666666652</v>
       </c>
-      <c r="N30" s="43">
+      <c r="N30" s="45">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="21" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="B31" s="21">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>47</v>
@@ -2305,23 +2317,23 @@
       <c r="K31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="27">
-        <f t="shared" ref="L31:L41" si="10">IF(M31&lt;M30, (L30+1),(L30))</f>
+      <c r="L31" s="28">
+        <f t="shared" ref="L31:L41" si="9">IF(M31&lt;M30, (L30+1),(L30))</f>
         <v>44488</v>
       </c>
-      <c r="M31" s="43">
+      <c r="M31" s="45">
         <f>IF(M30+N30&gt;1,M30+N30-1,M30+N30)</f>
         <v>0.77083333333333315</v>
       </c>
-      <c r="N31" s="43">
+      <c r="N31" s="45">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="21" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="B32" s="21">
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>51</v>
@@ -2350,23 +2362,23 @@
       <c r="K32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L32" s="27">
-        <f t="shared" si="10"/>
+      <c r="L32" s="28">
+        <f t="shared" si="9"/>
         <v>44488</v>
       </c>
-      <c r="M32" s="43">
+      <c r="M32" s="45">
         <f>IF(M31+N31&gt;1,M31+N31-1,M31+N31)</f>
         <v>0.81249999999999978</v>
       </c>
-      <c r="N32" s="43">
+      <c r="N32" s="45">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="21" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="B33" s="21">
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>58</v>
@@ -2395,23 +2407,23 @@
       <c r="K33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L33" s="27">
-        <f t="shared" si="10"/>
+      <c r="L33" s="28">
+        <f t="shared" si="9"/>
         <v>44488</v>
       </c>
-      <c r="M33" s="43">
+      <c r="M33" s="45">
         <f>IF(M32+N32&gt;1,M32+N32-1,M32+N32)</f>
         <v>0.85416666666666641</v>
       </c>
-      <c r="N33" s="45">
+      <c r="N33" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
-      <c r="B34" s="21" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="B34" s="21">
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>55</v>
@@ -2440,22 +2452,22 @@
       <c r="K34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L34" s="27">
-        <f t="shared" si="10"/>
+      <c r="L34" s="28">
+        <f t="shared" si="9"/>
         <v>44488</v>
       </c>
-      <c r="M34" s="43">
-        <f t="shared" ref="M34:M41" si="11">IF(M33+N33&gt;1,M33+N33-1,M33+N33)</f>
+      <c r="M34" s="45">
+        <f t="shared" ref="M34:M41" si="10">IF(M33+N33&gt;1,M33+N33-1,M33+N33)</f>
         <v>0.89583333333333304</v>
       </c>
-      <c r="N34" s="45">
+      <c r="N34" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="21" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="B35" s="21">
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>25</v>
@@ -2484,23 +2496,23 @@
       <c r="K35" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="L35" s="27">
+      <c r="L35" s="28">
+        <f t="shared" si="9"/>
+        <v>44488</v>
+      </c>
+      <c r="M35" s="45">
         <f t="shared" si="10"/>
-        <v>44488</v>
-      </c>
-      <c r="M35" s="43">
-        <f t="shared" si="11"/>
         <v>0.93749999999999967</v>
       </c>
-      <c r="N35" s="43">
+      <c r="N35" s="45">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="21" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="B36" s="21">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>44</v>
@@ -2523,29 +2535,29 @@
       <c r="I36" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J36" s="33" t="s">
+      <c r="J36" s="34" t="s">
         <v>117</v>
       </c>
       <c r="K36" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L36" s="27">
+      <c r="L36" s="28">
+        <f t="shared" si="9"/>
+        <v>44489</v>
+      </c>
+      <c r="M36" s="45">
         <f t="shared" si="10"/>
-        <v>44489</v>
-      </c>
-      <c r="M36" s="43">
-        <f t="shared" si="11"/>
         <v>2.0833333333333037E-2</v>
       </c>
-      <c r="N36" s="45">
+      <c r="N36" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="21" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="B37" s="21">
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>43</v>
@@ -2574,23 +2586,23 @@
       <c r="K37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L37" s="30">
-        <f t="shared" ref="L37" si="12">IF(M37&lt;M36, (L36+1),(L36))</f>
+      <c r="L37" s="31">
+        <f t="shared" ref="L37" si="11">IF(M37&lt;M36, (L36+1),(L36))</f>
         <v>44489</v>
       </c>
-      <c r="M37" s="43">
-        <f t="shared" ref="M37" si="13">IF(M36+N36&gt;1,M36+N36-1,M36+N36)</f>
+      <c r="M37" s="45">
+        <f t="shared" ref="M37" si="12">IF(M36+N36&gt;1,M36+N36-1,M36+N36)</f>
         <v>0.10416666666666637</v>
       </c>
-      <c r="N37" s="45">
+      <c r="N37" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="21" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="B38" s="21">
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>95</v>
@@ -2619,12 +2631,12 @@
       <c r="K38" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L38" s="27">
+      <c r="L38" s="28">
+        <f t="shared" si="9"/>
+        <v>44489</v>
+      </c>
+      <c r="M38" s="45">
         <f t="shared" si="10"/>
-        <v>44489</v>
-      </c>
-      <c r="M38" s="43">
-        <f t="shared" si="11"/>
         <v>0.18749999999999969</v>
       </c>
       <c r="N38" s="48">
@@ -2633,9 +2645,9 @@
     </row>
     <row r="39" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="15" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="B39" s="15">
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>25</v>
@@ -2665,11 +2677,11 @@
         <v>85</v>
       </c>
       <c r="L39" s="18">
+        <f t="shared" si="9"/>
+        <v>44489</v>
+      </c>
+      <c r="M39" s="44">
         <f t="shared" si="10"/>
-        <v>44489</v>
-      </c>
-      <c r="M39" s="44">
-        <f t="shared" si="11"/>
         <v>0.52083333333333304</v>
       </c>
       <c r="N39" s="49">
@@ -2678,9 +2690,9 @@
     </row>
     <row r="40" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="21" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="B40" s="21">
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>25</v>
@@ -2709,23 +2721,23 @@
       <c r="K40" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L40" s="27">
+      <c r="L40" s="28">
+        <f t="shared" si="9"/>
+        <v>44489</v>
+      </c>
+      <c r="M40" s="45">
         <f t="shared" si="10"/>
-        <v>44489</v>
-      </c>
-      <c r="M40" s="43">
-        <f t="shared" si="11"/>
         <v>0.54166666666666641</v>
       </c>
-      <c r="N40" s="45">
+      <c r="N40" s="46">
         <v>0.125</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="21" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="B41" s="21">
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>63</v>
@@ -2748,18 +2760,18 @@
       <c r="I41" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J41" s="33" t="s">
+      <c r="J41" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="K41" s="39" t="s">
+      <c r="K41" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="L41" s="38">
+      <c r="L41" s="37">
+        <f t="shared" si="9"/>
+        <v>44489</v>
+      </c>
+      <c r="M41" s="51">
         <f t="shared" si="10"/>
-        <v>44489</v>
-      </c>
-      <c r="M41" s="46">
-        <f t="shared" si="11"/>
         <v>0.66666666666666641</v>
       </c>
       <c r="N41" s="47">
@@ -2768,9 +2780,9 @@
     </row>
     <row r="42" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="21" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="B42" s="21">
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>98</v>
@@ -2793,19 +2805,19 @@
       <c r="I42" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J42" s="33" t="s">
+      <c r="J42" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="K42" s="39"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="46"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="51"/>
       <c r="N42" s="47"/>
     </row>
     <row r="43" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="21" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="B43" s="21">
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>96</v>
@@ -2828,19 +2840,19 @@
       <c r="I43" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J43" s="33" t="s">
+      <c r="J43" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="K43" s="39"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="46"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="51"/>
       <c r="N43" s="47"/>
     </row>
     <row r="44" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="21" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="B44" s="21">
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>99</v>
@@ -2863,19 +2875,19 @@
       <c r="I44" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J44" s="33" t="s">
+      <c r="J44" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="K44" s="39"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="46"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="51"/>
       <c r="N44" s="47"/>
     </row>
     <row r="45" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="21" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="B45" s="21">
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>64</v>
@@ -2898,18 +2910,18 @@
       <c r="I45" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J45" s="33" t="s">
+      <c r="J45" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="K45" s="39"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="46"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="51"/>
       <c r="N45" s="47"/>
     </row>
     <row r="46" spans="1:14" s="3" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="B46" s="10">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>25</v>
@@ -2952,9 +2964,9 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="21" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="B47" s="21">
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>25</v>
@@ -2977,26 +2989,32 @@
       <c r="I47" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J47" s="33" t="s">
+      <c r="J47" s="34" t="s">
         <v>117</v>
       </c>
       <c r="K47" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L47" s="27">
-        <f t="shared" ref="L47" si="14">IF(M47&lt;M46, (L46+1),(L46))</f>
+      <c r="L47" s="28">
+        <f t="shared" ref="L47" si="13">IF(M47&lt;M46, (L46+1),(L46))</f>
         <v>44490</v>
       </c>
-      <c r="M47" s="43">
-        <f t="shared" ref="M47" si="15">IF(M46+N46&gt;1,M46+N46-1,M46+N46)</f>
+      <c r="M47" s="45">
+        <f t="shared" ref="M47" si="14">IF(M46+N46&gt;1,M46+N46-1,M46+N46)</f>
         <v>0.52083333333333315</v>
       </c>
-      <c r="N47" s="45" t="s">
+      <c r="N47" s="26" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="N18:N25"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="L41:L45"/>
     <mergeCell ref="K41:K45"/>
     <mergeCell ref="B4:G4"/>
@@ -3013,12 +3031,6 @@
     <mergeCell ref="N41:N45"/>
     <mergeCell ref="L18:L25"/>
     <mergeCell ref="M18:M25"/>
-    <mergeCell ref="N18:N25"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="N5:N6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.74803149606299213" footer="0"/>
   <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="landscape" r:id="rId1"/>
